--- a/Carpeta de Estudio/E01/Repo2/Patrones de diseño.xlsx
+++ b/Carpeta de Estudio/E01/Repo2/Patrones de diseño.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Documentos\GitHub\MIC-Evolucion_patrones_de_diseno\Carpeta de Estudio\E01\Repo2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB039DB-34A8-4825-AF89-CAE675C0A572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BEA8DC-ED75-4329-A398-1810FD9DF6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -177,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -185,7 +185,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -477,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,7 +510,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>7</v>
@@ -519,7 +518,7 @@
       <c r="F2" s="4">
         <v>3</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -528,7 +527,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>9</v>
@@ -536,12 +535,12 @@
       <c r="F3" s="5">
         <v>3</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3">
@@ -553,7 +552,7 @@
       <c r="F4" s="1">
         <v>2</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>11</v>
       </c>
     </row>
